--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Sele</t>
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.98933855606459</v>
+        <v>4.699506666666667</v>
       </c>
       <c r="H2">
-        <v>2.98933855606459</v>
+        <v>14.09852</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9660495246229048</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9660495246229047</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>78.95575085292259</v>
+        <v>149.5731411427556</v>
       </c>
       <c r="R2">
-        <v>78.95575085292259</v>
+        <v>1346.1582702848</v>
       </c>
       <c r="S2">
-        <v>0.1042559285760563</v>
+        <v>0.110507171133416</v>
       </c>
       <c r="T2">
-        <v>0.1042559285760563</v>
+        <v>0.110507171133416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.98933855606459</v>
+        <v>4.699506666666667</v>
       </c>
       <c r="H3">
-        <v>2.98933855606459</v>
+        <v>14.09852</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9660495246229048</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9660495246229047</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>253.7487676401811</v>
+        <v>401.6347763320223</v>
       </c>
       <c r="R3">
-        <v>253.7487676401811</v>
+        <v>3614.712986988201</v>
       </c>
       <c r="S3">
-        <v>0.3350587273197692</v>
+        <v>0.2967345782949998</v>
       </c>
       <c r="T3">
-        <v>0.3350587273197692</v>
+        <v>0.2967345782949998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.98933855606459</v>
+        <v>4.699506666666667</v>
       </c>
       <c r="H4">
-        <v>2.98933855606459</v>
+        <v>14.09852</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9660495246229048</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9660495246229047</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>336.8807766558149</v>
+        <v>574.5044952035379</v>
       </c>
       <c r="R4">
-        <v>336.8807766558149</v>
+        <v>5170.54045683184</v>
       </c>
       <c r="S4">
-        <v>0.4448291329038125</v>
+        <v>0.4244536558056304</v>
       </c>
       <c r="T4">
-        <v>0.4448291329038125</v>
+        <v>0.4244536558056304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.98933855606459</v>
+        <v>4.699506666666667</v>
       </c>
       <c r="H5">
-        <v>2.98933855606459</v>
+        <v>14.09852</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9660495246229048</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9660495246229047</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>87.74094932765492</v>
+        <v>181.8503492248356</v>
       </c>
       <c r="R5">
-        <v>87.74094932765492</v>
+        <v>1636.65314302352</v>
       </c>
       <c r="S5">
-        <v>0.115856211200362</v>
+        <v>0.1343541193888586</v>
       </c>
       <c r="T5">
-        <v>0.115856211200362</v>
+        <v>0.1343541193888586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.495473</v>
+      </c>
+      <c r="I6">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="J6">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>31.82741333333333</v>
+      </c>
+      <c r="N6">
+        <v>95.48223999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.114390792932228</v>
+      </c>
+      <c r="P6">
+        <v>0.114390792932228</v>
+      </c>
+      <c r="Q6">
+        <v>5.256541322168888</v>
+      </c>
+      <c r="R6">
+        <v>47.30887189951999</v>
+      </c>
+      <c r="S6">
+        <v>0.003883621798812005</v>
+      </c>
+      <c r="T6">
+        <v>0.003883621798812006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.495473</v>
+      </c>
+      <c r="I7">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="J7">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>85.46317833333335</v>
+      </c>
+      <c r="N7">
+        <v>256.389535</v>
+      </c>
+      <c r="O7">
+        <v>0.307162904935779</v>
+      </c>
+      <c r="P7">
+        <v>0.307162904935779</v>
+      </c>
+      <c r="Q7">
+        <v>14.11489911945056</v>
+      </c>
+      <c r="R7">
+        <v>127.034092075055</v>
+      </c>
+      <c r="S7">
+        <v>0.0104283266407792</v>
+      </c>
+      <c r="T7">
+        <v>0.0104283266407792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.495473</v>
+      </c>
+      <c r="I8">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="J8">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>122.2478306666667</v>
+      </c>
+      <c r="N8">
+        <v>366.743492</v>
+      </c>
+      <c r="O8">
+        <v>0.4393704929064738</v>
+      </c>
+      <c r="P8">
+        <v>0.4393704929064738</v>
+      </c>
+      <c r="Q8">
+        <v>20.19016646796845</v>
+      </c>
+      <c r="R8">
+        <v>181.711498211716</v>
+      </c>
+      <c r="S8">
+        <v>0.01491683710084343</v>
+      </c>
+      <c r="T8">
+        <v>0.01491683710084343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.495473</v>
+      </c>
+      <c r="I9">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="J9">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>38.69562533333333</v>
+      </c>
+      <c r="N9">
+        <v>116.086876</v>
+      </c>
+      <c r="O9">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="P9">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="Q9">
+        <v>6.390879190260889</v>
+      </c>
+      <c r="R9">
+        <v>57.51791271234799</v>
+      </c>
+      <c r="S9">
+        <v>0.004721689836660579</v>
+      </c>
+      <c r="T9">
+        <v>0.004721689836660579</v>
       </c>
     </row>
   </sheetData>
